--- a/src/test/resources/DataResources/QA/Execution Control.xlsx
+++ b/src/test/resources/DataResources/QA/Execution Control.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jmejiasj_emeal_nttdata_com/Documents/workspace/jmejiasj/automation/src/test/resources/DataResources/QA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jcuevasc_emeal_nttdata_com/Documents/Avangrid/automation/src/test/resources/DataResources/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{755CF390-C45D-3547-8504-6E8CBC590B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A722CB75-5F75-4559-B319-D8DFBF636CD5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{6F4240D3-0A6C-497D-9EC6-C50A03ECB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DF5081C-DC03-4579-A05D-5B9646F53EC3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53399404-9D96-AD45-ACC0-99E7D504B113}"/>
+    <workbookView xWindow="-28920" yWindow="1125" windowWidth="29040" windowHeight="15720" xr2:uid="{53399404-9D96-AD45-ACC0-99E7D504B113}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCasesRunner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Execute (Y/N)</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Execution Status</t>
   </si>
   <si>
+    <t>Execution Time</t>
+  </si>
+  <si>
     <t>User Name</t>
   </si>
   <si>
@@ -71,71 +74,87 @@
     <t>SC001</t>
   </si>
   <si>
-    <t>XPTO</t>
+    <t>Navigate to Url Lqat</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>NYSEG</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>SC002</t>
+  </si>
+  <si>
+    <t>User logs in with incorrect credentials</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>SC003</t>
+  </si>
+  <si>
+    <t>User logs in with correct credentials</t>
+  </si>
+  <si>
+    <t>Test1_UI</t>
+  </si>
+  <si>
+    <t>Web2025!</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SC004</t>
+  </si>
+  <si>
+    <t>Navigate to the URL 2</t>
+  </si>
+  <si>
     <t>User001</t>
   </si>
   <si>
     <t>P001</t>
   </si>
   <si>
-    <t>183961238926389</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>NYSEG</t>
-  </si>
-  <si>
-    <t>SC002</t>
-  </si>
-  <si>
-    <t>SC003</t>
-  </si>
-  <si>
-    <t>SC004</t>
-  </si>
-  <si>
     <t>SC005</t>
   </si>
   <si>
-    <t>SC006</t>
-  </si>
-  <si>
-    <t>SC007</t>
-  </si>
-  <si>
-    <t>SC008</t>
-  </si>
-  <si>
-    <t>SC009</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Execution Time</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t/>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>2025-05-13 12:53:50</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>2025-05-13 12:54:02</t>
+  </si>
+  <si>
+    <t>2025-05-13 12:54:57</t>
+  </si>
+  <si>
+    <t>2025-05-13 12:55:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,13 +168,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,9 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,347 +545,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065C626B-6160-904B-A9A2-C4312E4124DD}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875"/>
+    <col min="3" max="3" customWidth="true" width="18.69921875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.69921875"/>
+    <col min="7" max="7" customWidth="true" width="19.59765625"/>
+    <col min="8" max="9" customWidth="true" width="15.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.19921875"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>183961238926389</v>
+      </c>
+      <c r="K2" s="0">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>183961238926389</v>
+      </c>
+      <c r="K3" s="0">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1">
+        <v>183961238926389</v>
+      </c>
+      <c r="K4" s="0">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1">
+        <v>183961238926389</v>
+      </c>
+      <c r="K5" s="0">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
+      <c r="F6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1">
+        <v>183961238926389</v>
+      </c>
+      <c r="K6" s="0">
         <v>10031</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>10031</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>